--- a/debug/Summary.xlsx
+++ b/debug/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\Team-IESians (Abhishek kumar kushwaha, 8305238599)\Bot-A-Thon 1.0\Bot-A-Thon\debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1E8754-9F0F-4F2A-88A3-5660DF8C08FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD1E71C-FAE7-4238-BB32-8A0336A8D849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1275" windowWidth="21600" windowHeight="10080" xr2:uid="{5426B1C1-6E5D-4899-B157-E657B513F2C3}"/>
+    <workbookView xWindow="5925" yWindow="2310" windowWidth="21600" windowHeight="10080" xr2:uid="{79D97005-98B2-4029-9727-B2D9E18DF0DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>S. No.</t>
   </si>
@@ -48,16 +48,147 @@
     <t>Email Id</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>ErrorType</t>
   </si>
   <si>
+    <t>BHAVYA ANAND</t>
+  </si>
+  <si>
+    <t>20MC2C029</t>
+  </si>
+  <si>
+    <t>testingprogram07@gmail.com</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>SURABHI JAIN</t>
+  </si>
+  <si>
+    <t>20MC2C036</t>
+  </si>
+  <si>
+    <t>KRATI TAKSALI</t>
+  </si>
+  <si>
+    <t>20MC2C037</t>
+  </si>
+  <si>
+    <t>pat1.khata@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditi Vatsa</t>
+  </si>
+  <si>
+    <t>20MC2N002</t>
+  </si>
+  <si>
+    <t>Ayush Sinha</t>
+  </si>
+  <si>
+    <t>20MC2N003</t>
+  </si>
+  <si>
+    <t>Kunal Kumawat</t>
+  </si>
+  <si>
+    <t>20MC2N005</t>
+  </si>
+  <si>
+    <t>Ankita .</t>
+  </si>
+  <si>
+    <t>20MC2N006</t>
+  </si>
+  <si>
+    <t>KESHAV MISHRA</t>
+  </si>
+  <si>
+    <t>20MC2N007</t>
+  </si>
+  <si>
+    <t>SUMIT KUMAR</t>
+  </si>
+  <si>
+    <t>20MC2N010</t>
+  </si>
+  <si>
+    <t>NISHTHA JAIN</t>
+  </si>
+  <si>
+    <t>20MC2N011</t>
+  </si>
+  <si>
+    <t>ABHISHEK SHARMA</t>
+  </si>
+  <si>
+    <t>20MCTN002</t>
+  </si>
+  <si>
+    <t>beastslayer66443@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajay Yadav</t>
+  </si>
+  <si>
+    <t>20MCTN004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAVISH KHANDELWAL</t>
+  </si>
+  <si>
+    <t>20MCTN007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARSHIT CHANDNANI
+</t>
+  </si>
+  <si>
+    <t>20MCIN001</t>
+  </si>
+  <si>
+    <t>Udit Goyal</t>
+  </si>
+  <si>
+    <t>20MCIN002</t>
+  </si>
+  <si>
+    <t>Gorav Saini</t>
+  </si>
+  <si>
+    <t>20MCIN003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Kumar Sharma
+</t>
+  </si>
+  <si>
+    <t>20MCIN005</t>
+  </si>
+  <si>
+    <t>Amrita Sharma</t>
+  </si>
+  <si>
+    <t>20MCIN006</t>
+  </si>
+  <si>
+    <t>PRASHANT YADAV</t>
+  </si>
+  <si>
+    <t>20MCIN007</t>
+  </si>
+  <si>
     <t>HARSHIT CHANDNANI</t>
   </si>
   <si>
-    <t>20MCIN001</t>
-  </si>
-  <si>
     <t>pat1.khata@gmail</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>Invalid Email</t>
@@ -123,8 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,14 +572,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135AB248-160C-4B2D-808D-A19251094625}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328DF0DD-549A-497D-94FF-E8042850FDCE}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,58 +608,64 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -530,10 +674,342 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
